--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\python\机器人队视觉组\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\python\机器人队视觉组\github\ROBOCON2024-TASK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBF5D05-61F9-4935-8EE5-AF2663FC6B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8755AC28-E6FA-4168-A4CA-9BB9C7DFA4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="3540" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -438,7 +438,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>10000</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
